--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 1].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 1].xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="410">
   <si>
     <t>Поз. обозначение</t>
   </si>
@@ -1210,6 +1210,12 @@
   </si>
   <si>
     <t>Изнач. производитель</t>
+  </si>
+  <si>
+    <t>Изнач. кол-во</t>
+  </si>
+  <si>
+    <t>Зам. кол-во</t>
   </si>
   <si>
     <t>Зам. номинал</t>
@@ -3900,12 +3906,12 @@
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3916,22 +3922,22 @@
         <v>397</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>399</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3951,24 +3957,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3996,10 +4002,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="F5" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4027,10 +4033,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="F7" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4050,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 1].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 1].xlsx
@@ -99,7 +99,7 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>C22.1, C23.1, C24.1</t>
+    <t>C22A, C23A, C24A</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB103</t>
@@ -108,7 +108,7 @@
     <t>керам., чип 0603, X7R, 0.01мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C22.2, C23.2, C24.2</t>
+    <t>C22B, C23B, C24B</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB223</t>
@@ -117,7 +117,7 @@
     <t>керам., чип 0603, X7R, 0.022мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C22.3, C23.3, C24.3</t>
+    <t>C22C, C23C, C24C</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB333</t>
@@ -126,7 +126,7 @@
     <t>керам., чип 0603, X7R, 0.033мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C22.4, C23.4, C24.4</t>
+    <t>C22D, C23D, C24D</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB473</t>
@@ -135,7 +135,7 @@
     <t>керам., чип 0603, X7R, 0.047мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C22.5, C23.5, C24.5</t>
+    <t>C22E, C23E, C24E</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB563</t>
@@ -144,7 +144,7 @@
     <t>керам., чип 0603, X7R, 0.056мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C22.6, C23.6, C24.6</t>
+    <t>C22F, C23F, C24F</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB683</t>
@@ -153,7 +153,7 @@
     <t>керам., чип 0603, X7R, 0.068мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C22.8, C23.8, C24.8</t>
+    <t>C22H, C23H, C24H</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB823</t>
@@ -171,7 +171,7 @@
     <t>керам., чип 0603, X7R, 0.1мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C19.1, C19.2, C19.3, C19.4, C19.5, C19.6, C19.7, C19.8, C20.1, C20.2, C20.3, C20.4, C20.5, C20.6, C20.7, C20.8, C21.1, C21.2, C21.3, C21.4, C21.5, C21.6, C21.7, C21.8</t>
+    <t>C19A, C19B, C19C, C19D, C19E, C19F, C19G, C19H, C20A, C20B, C20C, C20D, C20E, C20F, C20G, C20H, C21A, C21B, C21C, C21D, C21E, C21F, C21G, C21H</t>
   </si>
   <si>
     <t>CC0603KRX7R7BB105</t>
@@ -681,7 +681,7 @@
     <t>47мкГн ±30%, 1.5А</t>
   </si>
   <si>
-    <t>R14.1, R14.2, R14.3, R14.4, R14.5, R14.6, R14.7, R14.8, R15.1, R15.2, R15.3, R15.4, R15.5, R15.6, R15.7, R15.8, R16.1, R16.2, R16.3, R16.4, R16.5, R16.6, R16.7, R16.8, R17.1, R17.2, R17.3, R17.4, R18.1, R18.2, R18.3, R18.4, R19.1, R19.2, R19.3, R19.4</t>
+    <t>R14A, R14B, R14C, R14D, R14E, R14F, R14G, R14H, R15A, R15B, R15C, R15D, R15E, R15F, R15G, R15H, R16A, R16B, R16C, R16D, R16E, R16F, R16G, R16H, R17A, R17B, R17C, R17D, R18A, R18B, R18C, R18D, R19A, R19B, R19C, R19D</t>
   </si>
   <si>
     <t>Резистор</t>
@@ -693,7 +693,7 @@
     <t>чип 0603, 1кОм ±1%</t>
   </si>
   <si>
-    <t>R17.5, R17.6, R17.7, R17.8, R18.5, R18.6, R18.7, R18.8, R19.5, R19.6, R19.7, R19.8</t>
+    <t>R17E, R17F, R17G, R17H, R18E, R18F, R18G, R18H, R19E, R19F, R19G, R19H</t>
   </si>
   <si>
     <t>RC0603FR-074K7L</t>
